--- a/Example_Available_Hours.xlsx
+++ b/Example_Available_Hours.xlsx
@@ -384,49 +384,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>6.0</v>
+        <v>5.2</v>
       </c>
       <c r="C2" s="3">
-        <v>18.0</v>
+        <v>6.3</v>
       </c>
       <c r="D2" s="3">
-        <v>21.0</v>
+        <v>2.1</v>
       </c>
       <c r="E2" s="3">
-        <v>3.0</v>
+        <v>4.1</v>
       </c>
       <c r="F2" s="3">
-        <v>28.0</v>
+        <v>6.4</v>
       </c>
       <c r="G2" s="3">
-        <v>15.0</v>
+        <v>3.6</v>
       </c>
       <c r="H2" s="3">
-        <v>23.0</v>
+        <v>5.9</v>
       </c>
       <c r="I2" s="3">
-        <v>26.0</v>
+        <v>3.5</v>
       </c>
       <c r="J2" s="3">
-        <v>5.0</v>
+        <v>2.2</v>
       </c>
       <c r="K2" s="3">
-        <v>17.0</v>
+        <v>6.4</v>
       </c>
       <c r="L2" s="3">
-        <v>6.0</v>
+        <v>6.5</v>
       </c>
       <c r="M2" s="3">
-        <v>29.0</v>
+        <v>3.1</v>
       </c>
       <c r="N2" s="3">
-        <v>16.0</v>
+        <v>0.1</v>
       </c>
       <c r="O2" s="3">
-        <v>4.0</v>
+        <v>5.1</v>
       </c>
       <c r="P2" s="3">
-        <v>14.0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
@@ -434,49 +434,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C3" s="3">
-        <v>24.0</v>
+        <v>6.5</v>
       </c>
       <c r="D3" s="3">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" s="3">
-        <v>16.0</v>
+        <v>4.9</v>
       </c>
       <c r="F3" s="3">
-        <v>32.0</v>
+        <v>1.6</v>
       </c>
       <c r="G3" s="3">
-        <v>7.0</v>
+        <v>2.2</v>
       </c>
       <c r="H3" s="3">
-        <v>10.0</v>
+        <v>4.5</v>
       </c>
       <c r="I3" s="3">
-        <v>27.0</v>
+        <v>1.5</v>
       </c>
       <c r="J3" s="3">
-        <v>0.0</v>
+        <v>3.1</v>
       </c>
       <c r="K3" s="3">
-        <v>15.0</v>
+        <v>4.2</v>
       </c>
       <c r="L3" s="3">
-        <v>33.0</v>
+        <v>1.8</v>
       </c>
       <c r="M3" s="3">
-        <v>21.0</v>
+        <v>3.5</v>
       </c>
       <c r="N3" s="3">
-        <v>4.0</v>
+        <v>5.2</v>
       </c>
       <c r="O3" s="3">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="P3" s="3">
-        <v>6.0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
@@ -484,49 +484,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>7.0</v>
+        <v>3.9</v>
       </c>
       <c r="C4" s="3">
-        <v>24.0</v>
+        <v>0.7</v>
       </c>
       <c r="D4" s="3">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="E4" s="3">
-        <v>30.0</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="3">
-        <v>22.0</v>
+        <v>6.3</v>
       </c>
       <c r="G4" s="3">
-        <v>5.0</v>
+        <v>1.1</v>
       </c>
       <c r="H4" s="3">
-        <v>23.0</v>
+        <v>0.6</v>
       </c>
       <c r="I4" s="3">
-        <v>32.0</v>
+        <v>0.8</v>
       </c>
       <c r="J4" s="3">
-        <v>8.0</v>
+        <v>5.2</v>
       </c>
       <c r="K4" s="3">
-        <v>20.0</v>
+        <v>1.3</v>
       </c>
       <c r="L4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2.2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="3">
         <v>4.0</v>
       </c>
-      <c r="M4" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>32.0</v>
-      </c>
       <c r="P4" s="3">
-        <v>11.0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5">
@@ -534,49 +534,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="3">
-        <v>29.0</v>
+        <v>3.6</v>
       </c>
       <c r="D5" s="3">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" s="3">
-        <v>4.0</v>
+        <v>5.2</v>
       </c>
       <c r="F5" s="3">
-        <v>21.0</v>
+        <v>0.6</v>
       </c>
       <c r="G5" s="3">
-        <v>9.0</v>
+        <v>5.7</v>
       </c>
       <c r="H5" s="3">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="I5" s="3">
-        <v>8.0</v>
+        <v>0.6</v>
       </c>
       <c r="J5" s="3">
-        <v>16.0</v>
+        <v>2.7</v>
       </c>
       <c r="K5" s="3">
-        <v>26.0</v>
+        <v>6.2</v>
       </c>
       <c r="L5" s="3">
-        <v>32.0</v>
+        <v>0.6</v>
       </c>
       <c r="M5" s="3">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N5" s="3">
-        <v>27.0</v>
+        <v>3.1</v>
       </c>
       <c r="O5" s="3">
-        <v>3.0</v>
+        <v>3.3</v>
       </c>
       <c r="P5" s="3">
-        <v>8.0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="6">
@@ -584,49 +584,49 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>26.0</v>
+        <v>5.1</v>
       </c>
       <c r="C6" s="3">
-        <v>18.0</v>
+        <v>5.3</v>
       </c>
       <c r="D6" s="3">
+        <v>4.6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.1</v>
+      </c>
+      <c r="H6" s="3">
         <v>5.0</v>
       </c>
-      <c r="E6" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="I6" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="3">
         <v>2.0</v>
       </c>
-      <c r="H6" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>5.0</v>
-      </c>
       <c r="P6" s="3">
-        <v>17.0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="7">
@@ -634,49 +634,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="F7" s="3">
         <v>6.0</v>
       </c>
-      <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.0</v>
-      </c>
       <c r="G7" s="3">
-        <v>21.0</v>
+        <v>3.7</v>
       </c>
       <c r="H7" s="3">
-        <v>30.0</v>
+        <v>1.2</v>
       </c>
       <c r="I7" s="3">
-        <v>26.0</v>
+        <v>6.3</v>
       </c>
       <c r="J7" s="3">
-        <v>14.0</v>
+        <v>5.7</v>
       </c>
       <c r="K7" s="3">
-        <v>27.0</v>
+        <v>2.4</v>
       </c>
       <c r="L7" s="3">
-        <v>16.0</v>
+        <v>3.5</v>
       </c>
       <c r="M7" s="3">
-        <v>4.0</v>
+        <v>5.8</v>
       </c>
       <c r="N7" s="3">
-        <v>22.0</v>
+        <v>0.9</v>
       </c>
       <c r="O7" s="3">
-        <v>2.0</v>
+        <v>5.1</v>
       </c>
       <c r="P7" s="3">
-        <v>19.0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="8">
@@ -684,49 +684,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="C8" s="3">
-        <v>6.0</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="3">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" s="3">
-        <v>21.0</v>
+        <v>0.4</v>
       </c>
       <c r="F8" s="3">
-        <v>5.0</v>
+        <v>2.8</v>
       </c>
       <c r="G8" s="3">
-        <v>13.0</v>
+        <v>3.8</v>
       </c>
       <c r="H8" s="3">
-        <v>14.0</v>
+        <v>5.6</v>
       </c>
       <c r="I8" s="3">
-        <v>7.0</v>
+        <v>4.4</v>
       </c>
       <c r="J8" s="3">
-        <v>28.0</v>
+        <v>0.1</v>
       </c>
       <c r="K8" s="3">
-        <v>26.0</v>
+        <v>4.2</v>
       </c>
       <c r="L8" s="3">
-        <v>33.0</v>
+        <v>2.8</v>
       </c>
       <c r="M8" s="3">
-        <v>16.0</v>
+        <v>6.2</v>
       </c>
       <c r="N8" s="3">
-        <v>6.0</v>
+        <v>3.7</v>
       </c>
       <c r="O8" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P8" s="3">
-        <v>19.0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="9">
@@ -734,49 +734,49 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>29.0</v>
+        <v>5.1</v>
       </c>
       <c r="C9" s="3">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9" s="3">
-        <v>21.0</v>
+        <v>4.3</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" s="3">
+        <v>2.3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.1</v>
+      </c>
+      <c r="I9" s="3">
         <v>1.0</v>
       </c>
-      <c r="G9" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>11.0</v>
-      </c>
       <c r="J9" s="3">
-        <v>9.0</v>
+        <v>3.7</v>
       </c>
       <c r="K9" s="3">
-        <v>26.0</v>
+        <v>3.7</v>
       </c>
       <c r="L9" s="3">
-        <v>6.0</v>
+        <v>6.3</v>
       </c>
       <c r="M9" s="3">
-        <v>27.0</v>
+        <v>6.3</v>
       </c>
       <c r="N9" s="3">
-        <v>20.0</v>
+        <v>1.5</v>
       </c>
       <c r="O9" s="3">
-        <v>7.0</v>
+        <v>5.2</v>
       </c>
       <c r="P9" s="3">
-        <v>25.0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
@@ -784,49 +784,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>24.0</v>
+        <v>1.1</v>
       </c>
       <c r="C10" s="3">
-        <v>0.0</v>
+        <v>4.4</v>
       </c>
       <c r="D10" s="3">
-        <v>22.0</v>
+        <v>4.7</v>
       </c>
       <c r="E10" s="3">
-        <v>28.0</v>
+        <v>1.8</v>
       </c>
       <c r="F10" s="3">
-        <v>6.0</v>
+        <v>3.2</v>
       </c>
       <c r="G10" s="3">
-        <v>33.0</v>
+        <v>5.7</v>
       </c>
       <c r="H10" s="3">
-        <v>20.0</v>
+        <v>6.1</v>
       </c>
       <c r="I10" s="3">
-        <v>13.0</v>
+        <v>2.2</v>
       </c>
       <c r="J10" s="3">
-        <v>24.0</v>
+        <v>1.2</v>
       </c>
       <c r="K10" s="3">
-        <v>1.0</v>
+        <v>2.6</v>
       </c>
       <c r="L10" s="3">
-        <v>7.0</v>
+        <v>5.8</v>
       </c>
       <c r="M10" s="3">
-        <v>24.0</v>
+        <v>0.9</v>
       </c>
       <c r="N10" s="3">
-        <v>1.0</v>
+        <v>4.2</v>
       </c>
       <c r="O10" s="3">
-        <v>13.0</v>
+        <v>4.4</v>
       </c>
       <c r="P10" s="3">
-        <v>9.0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="11">
@@ -834,49 +834,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L11" s="3">
         <v>5.0</v>
       </c>
-      <c r="C11" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>13.0</v>
-      </c>
       <c r="M11" s="3">
-        <v>30.0</v>
+        <v>0.7</v>
       </c>
       <c r="N11" s="3">
-        <v>26.0</v>
+        <v>1.7</v>
       </c>
       <c r="O11" s="3">
-        <v>14.0</v>
+        <v>4.8</v>
       </c>
       <c r="P11" s="3">
-        <v>32.0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
@@ -884,49 +884,49 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>23.0</v>
+        <v>0.7</v>
       </c>
       <c r="C12" s="3">
-        <v>20.0</v>
+        <v>3.1</v>
       </c>
       <c r="D12" s="3">
-        <v>29.0</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="F12" s="3">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="G12" s="3">
-        <v>27.0</v>
+        <v>5.3</v>
       </c>
       <c r="H12" s="3">
-        <v>10.0</v>
+        <v>4.1</v>
       </c>
       <c r="I12" s="3">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="J12" s="3">
-        <v>25.0</v>
+        <v>1.5</v>
       </c>
       <c r="K12" s="3">
-        <v>29.0</v>
+        <v>4.1</v>
       </c>
       <c r="L12" s="3">
-        <v>16.0</v>
+        <v>5.3</v>
       </c>
       <c r="M12" s="3">
-        <v>19.0</v>
+        <v>2.2</v>
       </c>
       <c r="N12" s="3">
-        <v>1.0</v>
+        <v>4.6</v>
       </c>
       <c r="O12" s="3">
-        <v>15.0</v>
+        <v>1.3</v>
       </c>
       <c r="P12" s="3">
-        <v>27.0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13">
@@ -934,49 +934,49 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>4.0</v>
+        <v>4.2</v>
       </c>
       <c r="C13" s="3">
-        <v>16.0</v>
+        <v>2.5</v>
       </c>
       <c r="D13" s="3">
-        <v>17.0</v>
+        <v>6.2</v>
       </c>
       <c r="E13" s="3">
-        <v>26.0</v>
+        <v>2.9</v>
       </c>
       <c r="F13" s="3">
-        <v>20.0</v>
+        <v>6.3</v>
       </c>
       <c r="G13" s="3">
-        <v>3.0</v>
+        <v>5.4</v>
       </c>
       <c r="H13" s="3">
-        <v>19.0</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="3">
-        <v>17.0</v>
+        <v>5.8</v>
       </c>
       <c r="J13" s="3">
-        <v>29.0</v>
+        <v>3.4</v>
       </c>
       <c r="K13" s="3">
+        <v>2.3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="O13" s="3">
         <v>6.0</v>
       </c>
-      <c r="L13" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>8.0</v>
-      </c>
       <c r="P13" s="3">
-        <v>30.0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14">
@@ -984,49 +984,49 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>30.0</v>
+        <v>6.2</v>
       </c>
       <c r="C14" s="3">
-        <v>17.0</v>
+        <v>3.8</v>
       </c>
       <c r="D14" s="3">
-        <v>31.0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" s="3">
-        <v>14.0</v>
+        <v>2.9</v>
       </c>
       <c r="F14" s="3">
-        <v>7.0</v>
+        <v>4.1</v>
       </c>
       <c r="G14" s="3">
-        <v>16.0</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="3">
-        <v>9.0</v>
+        <v>0.1</v>
       </c>
       <c r="I14" s="3">
-        <v>22.0</v>
+        <v>0.3</v>
       </c>
       <c r="J14" s="3">
-        <v>28.0</v>
+        <v>1.2</v>
       </c>
       <c r="K14" s="3">
-        <v>2.0</v>
+        <v>5.6</v>
       </c>
       <c r="L14" s="3">
-        <v>15.0</v>
+        <v>0.6</v>
       </c>
       <c r="M14" s="3">
-        <v>33.0</v>
+        <v>1.1</v>
       </c>
       <c r="N14" s="3">
-        <v>30.0</v>
+        <v>2.7</v>
       </c>
       <c r="O14" s="3">
-        <v>21.0</v>
+        <v>5.9</v>
       </c>
       <c r="P14" s="3">
-        <v>1.0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15">
@@ -1034,49 +1034,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>7.0</v>
+        <v>3.9</v>
       </c>
       <c r="C15" s="3">
-        <v>19.0</v>
+        <v>0.4</v>
       </c>
       <c r="D15" s="3">
-        <v>31.0</v>
+        <v>4.2</v>
       </c>
       <c r="E15" s="3">
-        <v>29.0</v>
+        <v>2.8</v>
       </c>
       <c r="F15" s="3">
-        <v>21.0</v>
+        <v>5.1</v>
       </c>
       <c r="G15" s="3">
-        <v>9.0</v>
+        <v>4.4</v>
       </c>
       <c r="H15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="L15" s="3">
         <v>0.0</v>
       </c>
-      <c r="I15" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>18.0</v>
-      </c>
       <c r="M15" s="3">
-        <v>22.0</v>
+        <v>3.4</v>
       </c>
       <c r="N15" s="3">
-        <v>9.0</v>
+        <v>0.4</v>
       </c>
       <c r="O15" s="3">
-        <v>31.0</v>
+        <v>0.9</v>
       </c>
       <c r="P15" s="3">
-        <v>29.0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -1084,49 +1084,49 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>14.0</v>
+        <v>1.7</v>
       </c>
       <c r="C16" s="3">
-        <v>12.0</v>
+        <v>5.3</v>
       </c>
       <c r="D16" s="3">
-        <v>30.0</v>
+        <v>2.9</v>
       </c>
       <c r="E16" s="3">
-        <v>9.0</v>
+        <v>4.2</v>
       </c>
       <c r="F16" s="3">
-        <v>25.0</v>
+        <v>3.8</v>
       </c>
       <c r="G16" s="3">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="H16" s="3">
-        <v>7.0</v>
+        <v>4.7</v>
       </c>
       <c r="I16" s="3">
-        <v>20.0</v>
+        <v>2.2</v>
       </c>
       <c r="J16" s="3">
-        <v>27.0</v>
+        <v>0.1</v>
       </c>
       <c r="K16" s="3">
-        <v>33.0</v>
+        <v>4.3</v>
       </c>
       <c r="L16" s="3">
-        <v>27.0</v>
+        <v>1.9</v>
       </c>
       <c r="M16" s="3">
-        <v>15.0</v>
+        <v>4.3</v>
       </c>
       <c r="N16" s="3">
-        <v>16.0</v>
+        <v>2.3</v>
       </c>
       <c r="O16" s="3">
-        <v>12.0</v>
+        <v>4.7</v>
       </c>
       <c r="P16" s="3">
-        <v>33.0</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
